--- a/hedge_ratio_sweep.xlsx
+++ b/hedge_ratio_sweep.xlsx
@@ -453,31 +453,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>14409078741.82098</v>
+        <v>15312494550.1031</v>
       </c>
       <c r="B2">
-        <v>14409078741.82098</v>
+        <v>15312494550.1031</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3275614641.589733</v>
+        <v>3615419009.162645</v>
       </c>
       <c r="E2">
-        <v>3275614641.589733</v>
+        <v>3615419009.162645</v>
       </c>
       <c r="F2">
-        <v>20410725479.44743</v>
+        <v>21984299827.884</v>
       </c>
       <c r="G2">
-        <v>20410725479.44743</v>
+        <v>21984299827.884</v>
       </c>
       <c r="H2">
-        <v>10027111578.42944</v>
+        <v>10514472318.79329</v>
       </c>
       <c r="I2">
-        <v>10027111578.42944</v>
+        <v>10514472318.79329</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,154 +491,154 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>14409078741.82098</v>
+        <v>15312494550.1031</v>
       </c>
       <c r="B3">
-        <v>13684087719.27468</v>
+        <v>14595651585.07217</v>
       </c>
       <c r="C3">
-        <v>724991022.5462935</v>
+        <v>716842965.0309315</v>
       </c>
       <c r="D3">
-        <v>3275614641.589733</v>
+        <v>3615419009.162645</v>
       </c>
       <c r="E3">
-        <v>2292930249.112813</v>
+        <v>2530793306.413851</v>
       </c>
       <c r="F3">
-        <v>20410725479.44743</v>
+        <v>21984299827.884</v>
       </c>
       <c r="G3">
-        <v>17885240435.6132</v>
+        <v>19265915279.5188</v>
       </c>
       <c r="H3">
-        <v>10027111578.42944</v>
+        <v>10514472318.79329</v>
       </c>
       <c r="I3">
-        <v>10616710704.90061</v>
+        <v>11237036023.15531</v>
       </c>
       <c r="J3">
         <v>0.3</v>
       </c>
       <c r="K3">
-        <v>2525485043.834229</v>
+        <v>2718384548.365196</v>
       </c>
       <c r="L3">
-        <v>982684392.4769197</v>
+        <v>1084625702.748794</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>14409078741.82098</v>
+        <v>15312494550.1031</v>
       </c>
       <c r="B4">
-        <v>13200760370.91049</v>
+        <v>14117756275.05155</v>
       </c>
       <c r="C4">
-        <v>1208318370.910488</v>
+        <v>1194738275.051552</v>
       </c>
       <c r="D4">
-        <v>3275614641.589733</v>
+        <v>3615419009.162645</v>
       </c>
       <c r="E4">
-        <v>1637807320.794867</v>
+        <v>1807709504.581322</v>
       </c>
       <c r="F4">
-        <v>20410725479.44743</v>
+        <v>21984299827.884</v>
       </c>
       <c r="G4">
-        <v>16201583739.72372</v>
+        <v>17453658913.942</v>
       </c>
       <c r="H4">
-        <v>10027111578.42944</v>
+        <v>10514472318.79329</v>
       </c>
       <c r="I4">
-        <v>11009776789.21472</v>
+        <v>11718745159.39665</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>4209141739.723707</v>
+        <v>4530640913.941994</v>
       </c>
       <c r="L4">
-        <v>1637807320.794867</v>
+        <v>1807709504.581323</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>14409078741.82098</v>
+        <v>15312494550.1031</v>
       </c>
       <c r="B5">
-        <v>12717433022.5463</v>
+        <v>13639860965.03093</v>
       </c>
       <c r="C5">
-        <v>1691645719.274683</v>
+        <v>1672633585.072171</v>
       </c>
       <c r="D5">
-        <v>3275614641.589733</v>
+        <v>3615419009.162645</v>
       </c>
       <c r="E5">
-        <v>982684392.4769201</v>
+        <v>1084625702.748794</v>
       </c>
       <c r="F5">
-        <v>20410725479.44743</v>
+        <v>21984299827.884</v>
       </c>
       <c r="G5">
-        <v>14517927043.83423</v>
+        <v>15641402548.3652</v>
       </c>
       <c r="H5">
-        <v>10027111578.42944</v>
+        <v>10514472318.79329</v>
       </c>
       <c r="I5">
-        <v>11402842873.52883</v>
+        <v>12200454295.63799</v>
       </c>
       <c r="J5">
         <v>0.7</v>
       </c>
       <c r="K5">
-        <v>5892798435.613197</v>
+        <v>6342897279.518793</v>
       </c>
       <c r="L5">
-        <v>2292930249.112813</v>
+        <v>2530793306.413851</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>14409078741.82098</v>
+        <v>15312494550.1031</v>
       </c>
       <c r="B6">
-        <v>11992442000</v>
+        <v>12923018000</v>
       </c>
       <c r="C6">
-        <v>2416636741.820978</v>
+        <v>2389476550.103104</v>
       </c>
       <c r="D6">
-        <v>3275614641.589733</v>
+        <v>3615419009.162645</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20410725479.44743</v>
+        <v>21984299827.884</v>
       </c>
       <c r="G6">
-        <v>11992442000</v>
+        <v>12923018000</v>
       </c>
       <c r="H6">
-        <v>10027111578.42944</v>
+        <v>10514472318.79329</v>
       </c>
       <c r="I6">
-        <v>11992442000</v>
+        <v>12923018000</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>8418283479.447426</v>
+        <v>9061281827.883995</v>
       </c>
       <c r="L6">
-        <v>3275614641.589733</v>
+        <v>3615419009.162645</v>
       </c>
     </row>
   </sheetData>

--- a/hedge_ratio_sweep.xlsx
+++ b/hedge_ratio_sweep.xlsx
@@ -453,31 +453,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>15312494550.1031</v>
+        <v>6355952324.528268</v>
       </c>
       <c r="B2">
-        <v>15312494550.1031</v>
+        <v>6355952324.528268</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3615419009.162645</v>
+        <v>2152303489.342762</v>
       </c>
       <c r="E2">
-        <v>3615419009.162645</v>
+        <v>2152303489.342762</v>
       </c>
       <c r="F2">
-        <v>21984299827.884</v>
+        <v>10412704182.71523</v>
       </c>
       <c r="G2">
-        <v>21984299827.884</v>
+        <v>10412704182.71523</v>
       </c>
       <c r="H2">
-        <v>10514472318.79329</v>
+        <v>3797952208.051187</v>
       </c>
       <c r="I2">
-        <v>10514472318.79329</v>
+        <v>3797952208.051187</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,154 +491,154 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>15312494550.1031</v>
+        <v>6355952324.528268</v>
       </c>
       <c r="B3">
-        <v>14595651585.07217</v>
+        <v>6088417222.562868</v>
       </c>
       <c r="C3">
-        <v>716842965.0309315</v>
+        <v>267535101.9654</v>
       </c>
       <c r="D3">
-        <v>3615419009.162645</v>
+        <v>2152303489.342762</v>
       </c>
       <c r="E3">
-        <v>2530793306.413851</v>
+        <v>1614227617.007071</v>
       </c>
       <c r="F3">
-        <v>21984299827.884</v>
+        <v>10412704182.71523</v>
       </c>
       <c r="G3">
-        <v>19265915279.5188</v>
+        <v>9130981116.203087</v>
       </c>
       <c r="H3">
-        <v>10514472318.79329</v>
+        <v>3797952208.051187</v>
       </c>
       <c r="I3">
-        <v>11237036023.15531</v>
+        <v>4169917135.205057</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
-        <v>2718384548.365196</v>
+        <v>1281723066.512138</v>
       </c>
       <c r="L3">
-        <v>1084625702.748794</v>
+        <v>538075872.335691</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>15312494550.1031</v>
+        <v>6355952324.528268</v>
       </c>
       <c r="B4">
-        <v>14117756275.05155</v>
+        <v>5820882120.597467</v>
       </c>
       <c r="C4">
-        <v>1194738275.051552</v>
+        <v>535070203.9308</v>
       </c>
       <c r="D4">
-        <v>3615419009.162645</v>
+        <v>2152303489.342762</v>
       </c>
       <c r="E4">
-        <v>1807709504.581322</v>
+        <v>1076151744.671381</v>
       </c>
       <c r="F4">
-        <v>21984299827.884</v>
+        <v>10412704182.71523</v>
       </c>
       <c r="G4">
-        <v>17453658913.942</v>
+        <v>7849258049.690947</v>
       </c>
       <c r="H4">
-        <v>10514472318.79329</v>
+        <v>3797952208.051187</v>
       </c>
       <c r="I4">
-        <v>11718745159.39665</v>
+        <v>4541882062.358928</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>4530640913.941994</v>
+        <v>2563446133.024279</v>
       </c>
       <c r="L4">
-        <v>1807709504.581323</v>
+        <v>1076151744.671381</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>15312494550.1031</v>
+        <v>6355952324.528268</v>
       </c>
       <c r="B5">
-        <v>13639860965.03093</v>
+        <v>5553347018.632068</v>
       </c>
       <c r="C5">
-        <v>1672633585.072171</v>
+        <v>802605305.8962002</v>
       </c>
       <c r="D5">
-        <v>3615419009.162645</v>
+        <v>2152303489.342762</v>
       </c>
       <c r="E5">
-        <v>1084625702.748794</v>
+        <v>538075872.3356904</v>
       </c>
       <c r="F5">
-        <v>21984299827.884</v>
+        <v>10412704182.71523</v>
       </c>
       <c r="G5">
-        <v>15641402548.3652</v>
+        <v>6567534983.178806</v>
       </c>
       <c r="H5">
-        <v>10514472318.79329</v>
+        <v>3797952208.051187</v>
       </c>
       <c r="I5">
-        <v>12200454295.63799</v>
+        <v>4913846989.512796</v>
       </c>
       <c r="J5">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="K5">
-        <v>6342897279.518793</v>
+        <v>3845169199.536419</v>
       </c>
       <c r="L5">
-        <v>2530793306.413851</v>
+        <v>1614227617.007071</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>15312494550.1031</v>
+        <v>6355952324.528268</v>
       </c>
       <c r="B6">
-        <v>12923018000</v>
+        <v>5285811916.66667</v>
       </c>
       <c r="C6">
-        <v>2389476550.103104</v>
+        <v>1070140407.861599</v>
       </c>
       <c r="D6">
-        <v>3615419009.162645</v>
+        <v>2152303489.342762</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.9073486328125E-06</v>
       </c>
       <c r="F6">
-        <v>21984299827.884</v>
+        <v>10412704182.71523</v>
       </c>
       <c r="G6">
-        <v>12923018000</v>
+        <v>5285811916.666668</v>
       </c>
       <c r="H6">
-        <v>10514472318.79329</v>
+        <v>3797952208.051187</v>
       </c>
       <c r="I6">
-        <v>12923018000</v>
+        <v>5285811916.666668</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>9061281827.883995</v>
+        <v>5126892266.048557</v>
       </c>
       <c r="L6">
-        <v>3615419009.162645</v>
+        <v>2152303489.34276</v>
       </c>
     </row>
   </sheetData>

--- a/hedge_ratio_sweep.xlsx
+++ b/hedge_ratio_sweep.xlsx
@@ -453,31 +453,31 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>6355952324.528268</v>
+        <v>21882094929.61077</v>
       </c>
       <c r="B2">
-        <v>6355952324.528268</v>
+        <v>21882094929.61077</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2152303489.342762</v>
+        <v>6657548431.013263</v>
       </c>
       <c r="E2">
-        <v>2152303489.342762</v>
+        <v>6657548431.013263</v>
       </c>
       <c r="F2">
-        <v>10412704182.71523</v>
+        <v>34363972666.35603</v>
       </c>
       <c r="G2">
-        <v>10412704182.71523</v>
+        <v>34363972666.35603</v>
       </c>
       <c r="H2">
-        <v>3797952208.051187</v>
+        <v>13629524232.47095</v>
       </c>
       <c r="I2">
-        <v>3797952208.051187</v>
+        <v>13629524232.47095</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,154 +491,154 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>6355952324.528268</v>
+        <v>21882094929.61077</v>
       </c>
       <c r="B3">
-        <v>6088417222.562868</v>
+        <v>21676401634.70808</v>
       </c>
       <c r="C3">
-        <v>267535101.9654</v>
+        <v>205693294.9026918</v>
       </c>
       <c r="D3">
-        <v>2152303489.342762</v>
+        <v>6657548431.013263</v>
       </c>
       <c r="E3">
-        <v>1614227617.007071</v>
+        <v>4993161323.259947</v>
       </c>
       <c r="F3">
-        <v>10412704182.71523</v>
+        <v>34363972666.35603</v>
       </c>
       <c r="G3">
-        <v>9130981116.203087</v>
+        <v>31037809937.26702</v>
       </c>
       <c r="H3">
-        <v>3797952208.051187</v>
+        <v>13629524232.47095</v>
       </c>
       <c r="I3">
-        <v>4169917135.205057</v>
+        <v>15486973611.85321</v>
       </c>
       <c r="J3">
         <v>0.25</v>
       </c>
       <c r="K3">
-        <v>1281723066.512138</v>
+        <v>3326162729.089008</v>
       </c>
       <c r="L3">
-        <v>538075872.335691</v>
+        <v>1664387107.753316</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>6355952324.528268</v>
+        <v>21882094929.61077</v>
       </c>
       <c r="B4">
-        <v>5820882120.597467</v>
+        <v>21470708339.80539</v>
       </c>
       <c r="C4">
-        <v>535070203.9308</v>
+        <v>411386589.8053839</v>
       </c>
       <c r="D4">
-        <v>2152303489.342762</v>
+        <v>6657548431.013263</v>
       </c>
       <c r="E4">
-        <v>1076151744.671381</v>
+        <v>3328774215.506631</v>
       </c>
       <c r="F4">
-        <v>10412704182.71523</v>
+        <v>34363972666.35603</v>
       </c>
       <c r="G4">
-        <v>7849258049.690947</v>
+        <v>27711647208.17802</v>
       </c>
       <c r="H4">
-        <v>3797952208.051187</v>
+        <v>13629524232.47095</v>
       </c>
       <c r="I4">
-        <v>4541882062.358928</v>
+        <v>17344422991.23548</v>
       </c>
       <c r="J4">
         <v>0.5</v>
       </c>
       <c r="K4">
-        <v>2563446133.024279</v>
+        <v>6652325458.178009</v>
       </c>
       <c r="L4">
-        <v>1076151744.671381</v>
+        <v>3328774215.506631</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>6355952324.528268</v>
+        <v>21882094929.61077</v>
       </c>
       <c r="B5">
-        <v>5553347018.632068</v>
+        <v>21265015044.90269</v>
       </c>
       <c r="C5">
-        <v>802605305.8962002</v>
+        <v>617079884.7080761</v>
       </c>
       <c r="D5">
-        <v>2152303489.342762</v>
+        <v>6657548431.013263</v>
       </c>
       <c r="E5">
-        <v>538075872.3356904</v>
+        <v>1664387107.753316</v>
       </c>
       <c r="F5">
-        <v>10412704182.71523</v>
+        <v>34363972666.35603</v>
       </c>
       <c r="G5">
-        <v>6567534983.178806</v>
+        <v>24385484479.089</v>
       </c>
       <c r="H5">
-        <v>3797952208.051187</v>
+        <v>13629524232.47095</v>
       </c>
       <c r="I5">
-        <v>4913846989.512796</v>
+        <v>19201872370.61774</v>
       </c>
       <c r="J5">
         <v>0.75</v>
       </c>
       <c r="K5">
-        <v>3845169199.536419</v>
+        <v>9978488187.267021</v>
       </c>
       <c r="L5">
-        <v>1614227617.007071</v>
+        <v>4993161323.259947</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>6355952324.528268</v>
+        <v>21882094929.61077</v>
       </c>
       <c r="B6">
-        <v>5285811916.66667</v>
+        <v>21059321750</v>
       </c>
       <c r="C6">
-        <v>1070140407.861599</v>
+        <v>822773179.6107676</v>
       </c>
       <c r="D6">
-        <v>2152303489.342762</v>
+        <v>6657548431.013263</v>
       </c>
       <c r="E6">
-        <v>1.9073486328125E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>10412704182.71523</v>
+        <v>34363972666.35603</v>
       </c>
       <c r="G6">
-        <v>5285811916.666668</v>
+        <v>21059321750</v>
       </c>
       <c r="H6">
-        <v>3797952208.051187</v>
+        <v>13629524232.47095</v>
       </c>
       <c r="I6">
-        <v>5285811916.666668</v>
+        <v>21059321750</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>5126892266.048557</v>
+        <v>13304650916.35602</v>
       </c>
       <c r="L6">
-        <v>2152303489.34276</v>
+        <v>6657548431.013263</v>
       </c>
     </row>
   </sheetData>
